--- a/biology/Botanique/Ernest-René_Peltereau/Ernest-René_Peltereau.xlsx
+++ b/biology/Botanique/Ernest-René_Peltereau/Ernest-René_Peltereau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ernest-Ren%C3%A9_Peltereau</t>
+          <t>Ernest-René_Peltereau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ernest-René Peltereau est un mycologue[1] et botaniste français né le 3 avril 1842 à Vendôme, où il est mort le 10 décembre 1928[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ernest-René Peltereau est un mycologue et botaniste français né le 3 avril 1842 à Vendôme, où il est mort le 10 décembre 1928.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ernest-Ren%C3%A9_Peltereau</t>
+          <t>Ernest-René_Peltereau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Notaire de profession, il a été le quinzième président de la Société archéologique, scientifique et littéraire du Vendômois[3], et réélu à plusieurs reprises (de 1903 à 1905, 1909 à 1911 et de 1920 à 1922), membre fondateur, et trésorier de la Société mycologique de France[4]. Il est le neveu d’Émilien Renou.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Notaire de profession, il a été le quinzième président de la Société archéologique, scientifique et littéraire du Vendômois, et réélu à plusieurs reprises (de 1903 à 1905, 1909 à 1911 et de 1920 à 1922), membre fondateur, et trésorier de la Société mycologique de France. Il est le neveu d’Émilien Renou.
 Formé à la mycologie par Émile Boudier, il publie en 1912, à la Société archéologique du Vendômois, une table méthodique et par noms d'auteurs des 50 premières années du « Bulletin » (1862-1911).
 Une russule lui a été dédiée par l’abbé Charles-Auguste Séjourné (1843-1900) dans son Album mycologique : champignons des environs de Blois (2 volumes de planches in-folio, dessins à l’aquarelle) : Russula cyanoxantha f. peltereaui Singer, 1925.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ernest-Ren%C3%A9_Peltereau</t>
+          <t>Ernest-René_Peltereau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Œuvres mycologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest-René Peltereau, « Études et observations sur les russules », Bulletin de la Société mycologique de France, t. XXIV, no 2,‎ 1908, p. 95-120 (lire en ligne).
 Ernest-René Peltereau, « Contribution à l'étude des bolets », Bulletin de la Société mycologique de France, t. XLII,‎ 1926, p. 197-202 (lire en ligne).
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ernest-Ren%C3%A9_Peltereau</t>
+          <t>Ernest-René_Peltereau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie
  Chevalier de l'ordre du Mérite agricole</t>
